--- a/Dokumentation/Classifier.xlsx
+++ b/Dokumentation/Classifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Amount[kg]</t>
+  </si>
+  <si>
+    <t>Efficiency[-]</t>
   </si>
 </sst>
 </file>
@@ -147,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +554,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
